--- a/WebBasedEvaluations/Program documents/Review_Data_Upload_Groups company1.xlsx
+++ b/WebBasedEvaluations/Program documents/Review_Data_Upload_Groups company1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\git\Fall-2022-Group-3-Web-Evaluation\WebBasedEvaluations\Program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDACD37-FFD0-41D2-BAE9-69D14DB6CFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA95976-57BA-4B08-90DA-1BF15692BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{079B294C-15ED-4C5F-AB5B-888FCCC0F075}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{079B294C-15ED-4C5F-AB5B-888FCCC0F075}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Reviewees" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="119">
   <si>
     <t>Level 1, Face to Face</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Thangiah Manufacturing LLC</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
 </sst>
 </file>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0720E2F-7021-4A92-8E8F-A1962F893CAF}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,6 +1596,9 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
@@ -2131,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1863F47-BB31-4312-9EDE-2DD54DBBC63C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
